--- a/data/1:5:2022_fdic_instdatabase.xlsx
+++ b/data/1:5:2022_fdic_instdatabase.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Documents/coding.nosync/a&amp;s 500/dataviz_final-mmccanless/data/1:5:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C04E82-6F15-2D45-8603-B521F71362C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567E1AD6-9F79-3C4D-9C22-57943E8F7271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15860" activeTab="3" xr2:uid="{AE0A4C2E-ED70-2A4F-813E-68B89BC3B3A0}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="28040" windowHeight="15860" activeTab="2" xr2:uid="{AE0A4C2E-ED70-2A4F-813E-68B89BC3B3A0}"/>
   </bookViews>
   <sheets>
     <sheet name="First Federal Bank of KC" sheetId="1" r:id="rId1"/>
     <sheet name="Customers Bank" sheetId="2" r:id="rId2"/>
     <sheet name="Cross River Bank" sheetId="3" r:id="rId3"/>
     <sheet name="crossrivercsv" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t>Q1</t>
   </si>
@@ -203,6 +204,12 @@
   </si>
   <si>
     <t>Q42021</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geom_line(), want to map the kind of data it is to the color… </t>
   </si>
 </sst>
 </file>
@@ -9421,8 +9428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1310F4A-EDA1-9347-8B93-15FBC9231C91}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC10" sqref="AC3:AC10"/>
     </sheetView>
   </sheetViews>
@@ -10302,8 +10309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B6B9D-C248-AF45-8C04-6EB9DF52DF04}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
@@ -11537,11 +11544,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F880E-3236-4848-8374-9FA75498A377}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="A1:AC11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S36" sqref="S36:W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12548,6 +12555,15 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
+    <row r="36" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="V1:Y1"/>
@@ -12565,10 +12581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8BD95B-D8A1-684C-A579-71C9C1DA0478}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13463,8 +13479,25 @@
         <v>8066786</v>
       </c>
     </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE478A0-3A95-9441-ABC9-F8F47B8AB35E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>